--- a/inst/extdata/data/CH04_SP500-Excel.xlsx
+++ b/inst/extdata/data/CH04_SP500-Excel.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3269"/>
+  <dimension ref="A1:B3270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26520,6 +26520,14 @@
         <v>3844.820068</v>
       </c>
     </row>
+    <row r="3270">
+      <c r="A3270" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B3270">
+        <v>3829.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
